--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivywang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivywang/PycharmProjects/hello-word/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68B7763-B57E-2C4B-A111-FA6F82BFE8A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D5FA9F-06C7-8E49-BB9B-F7B08A8882F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="16900" xr2:uid="{7BC07AB6-763C-C54D-8E0B-F2481BA7300C}"/>
   </bookViews>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -388,9 +391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB8AE1E-1FE5-544F-9053-87FD641811BB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -399,6 +404,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivywang/PycharmProjects/hello-word/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D5FA9F-06C7-8E49-BB9B-F7B08A8882F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E89B69D-C436-944B-A322-88A850E0ED20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="16900" xr2:uid="{7BC07AB6-763C-C54D-8E0B-F2481BA7300C}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test</t>
   </si>
   <si>
     <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB8AE1E-1FE5-544F-9053-87FD641811BB}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -409,6 +412,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
